--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Prok1-Prokr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Prok1-Prokr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -455,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,49 +537,49 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.2855585</v>
+        <v>0.01013966666666667</v>
       </c>
       <c r="H2">
-        <v>0.571117</v>
+        <v>0.030419</v>
       </c>
       <c r="I2">
-        <v>0.9657094030004696</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.9494311229918077</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.2274375</v>
+        <v>1.566020333333333</v>
       </c>
       <c r="N2">
-        <v>2.454875</v>
+        <v>4.698061</v>
       </c>
       <c r="O2">
-        <v>0.2078063312290072</v>
+        <v>0.2550454977236752</v>
       </c>
       <c r="P2">
-        <v>0.1505597458544744</v>
+        <v>0.2585508189124881</v>
       </c>
       <c r="Q2">
-        <v>0.35050521134375</v>
+        <v>0.01587892417322222</v>
       </c>
       <c r="R2">
-        <v>1.402020845375</v>
+        <v>0.142910317559</v>
       </c>
       <c r="S2">
-        <v>0.2006805280708824</v>
+        <v>0.2550454977236752</v>
       </c>
       <c r="T2">
-        <v>0.1429461085839748</v>
+        <v>0.2585508189124881</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.2855585</v>
+        <v>0.01013966666666667</v>
       </c>
       <c r="H3">
-        <v>0.571117</v>
+        <v>0.030419</v>
       </c>
       <c r="I3">
-        <v>0.9657094030004696</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.9494311229918077</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.566020333333333</v>
+        <v>0.8282889999999999</v>
       </c>
       <c r="N3">
-        <v>4.698061</v>
+        <v>2.484867</v>
       </c>
       <c r="O3">
-        <v>0.2651287255766807</v>
+        <v>0.1348969587223613</v>
       </c>
       <c r="P3">
-        <v>0.2881364102729539</v>
+        <v>0.1367509697593577</v>
       </c>
       <c r="Q3">
-        <v>0.4471904173561667</v>
+        <v>0.008398574363666667</v>
       </c>
       <c r="R3">
-        <v>2.683142504137</v>
+        <v>0.07558716927300001</v>
       </c>
       <c r="S3">
-        <v>0.2560373032949316</v>
+        <v>0.1348969587223613</v>
       </c>
       <c r="T3">
-        <v>0.2735656755802788</v>
+        <v>0.1367509697593577</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -664,49 +661,49 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.2855585</v>
+        <v>0.01013966666666667</v>
       </c>
       <c r="H4">
-        <v>0.571117</v>
+        <v>0.030419</v>
       </c>
       <c r="I4">
-        <v>0.9657094030004696</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.9494311229918077</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.214624666666667</v>
+        <v>0.249737</v>
       </c>
       <c r="N4">
-        <v>6.643874</v>
+        <v>0.499474</v>
       </c>
       <c r="O4">
-        <v>0.3749380534888848</v>
+        <v>0.04067271421019276</v>
       </c>
       <c r="P4">
-        <v>0.4074749145798259</v>
+        <v>0.02748781076395051</v>
       </c>
       <c r="Q4">
-        <v>0.6324048978763334</v>
+        <v>0.002532249934333333</v>
       </c>
       <c r="R4">
-        <v>3.794429387258</v>
+        <v>0.015193499606</v>
       </c>
       <c r="S4">
-        <v>0.3620812037969091</v>
+        <v>0.04067271421019276</v>
       </c>
       <c r="T4">
-        <v>0.386869365740515</v>
+        <v>0.02748781076395051</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -726,49 +723,49 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.2855585</v>
+        <v>0.01013966666666667</v>
       </c>
       <c r="H5">
-        <v>0.571117</v>
+        <v>0.030419</v>
       </c>
       <c r="I5">
-        <v>0.9657094030004696</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.9494311229918077</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.187498</v>
+        <v>0.3087896666666667</v>
       </c>
       <c r="N5">
-        <v>0.374996</v>
+        <v>0.926369</v>
       </c>
       <c r="O5">
-        <v>0.0317435889752239</v>
+        <v>0.05029016070263526</v>
       </c>
       <c r="P5">
-        <v>0.02299885022921512</v>
+        <v>0.05098134391297659</v>
       </c>
       <c r="Q5">
-        <v>0.053541647633</v>
+        <v>0.003131024290111111</v>
       </c>
       <c r="R5">
-        <v>0.214166590532</v>
+        <v>0.028179218611</v>
       </c>
       <c r="S5">
-        <v>0.03065508235835577</v>
+        <v>0.05029016070263526</v>
       </c>
       <c r="T5">
-        <v>0.02183582420064411</v>
+        <v>0.05098134391297659</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -788,483 +785,49 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.2855585</v>
+        <v>0.01013966666666667</v>
       </c>
       <c r="H6">
-        <v>0.571117</v>
+        <v>0.030419</v>
       </c>
       <c r="I6">
-        <v>0.9657094030004696</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.9494311229918077</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.2903533333333334</v>
+        <v>3.187324666666667</v>
       </c>
       <c r="N6">
-        <v>0.8710600000000001</v>
+        <v>9.561974000000001</v>
       </c>
       <c r="O6">
-        <v>0.04915709432057682</v>
+        <v>0.5190946686411355</v>
       </c>
       <c r="P6">
-        <v>0.05342291245949323</v>
+        <v>0.526229056651227</v>
       </c>
       <c r="Q6">
-        <v>0.08291286233666667</v>
+        <v>0.03231840967844445</v>
       </c>
       <c r="R6">
-        <v>0.49747717402</v>
+        <v>0.290865687106</v>
       </c>
       <c r="S6">
-        <v>0.04747146820956202</v>
+        <v>0.5190946686411355</v>
       </c>
       <c r="T6">
-        <v>0.05072137576990969</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.5</v>
-      </c>
-      <c r="G7">
-        <v>0.2855585</v>
-      </c>
-      <c r="H7">
-        <v>0.571117</v>
-      </c>
-      <c r="I7">
-        <v>0.9657094030004696</v>
-      </c>
-      <c r="J7">
-        <v>0.9494311229918077</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M7">
-        <v>0.4207076666666666</v>
-      </c>
-      <c r="N7">
-        <v>1.262123</v>
-      </c>
-      <c r="O7">
-        <v>0.07122620640962662</v>
-      </c>
-      <c r="P7">
-        <v>0.07740716660403757</v>
-      </c>
-      <c r="Q7">
-        <v>0.1201366502318333</v>
-      </c>
-      <c r="R7">
-        <v>0.7208199013909999</v>
-      </c>
-      <c r="S7">
-        <v>0.06878381726982875</v>
-      </c>
-      <c r="T7">
-        <v>0.07349277311648533</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.01013966666666667</v>
-      </c>
-      <c r="H8">
-        <v>0.030419</v>
-      </c>
-      <c r="I8">
-        <v>0.03429059699953049</v>
-      </c>
-      <c r="J8">
-        <v>0.05056887700819236</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.5</v>
-      </c>
-      <c r="M8">
-        <v>1.2274375</v>
-      </c>
-      <c r="N8">
-        <v>2.454875</v>
-      </c>
-      <c r="O8">
-        <v>0.2078063312290072</v>
-      </c>
-      <c r="P8">
-        <v>0.1505597458544744</v>
-      </c>
-      <c r="Q8">
-        <v>0.01244580710416667</v>
-      </c>
-      <c r="R8">
-        <v>0.07467484262499999</v>
-      </c>
-      <c r="S8">
-        <v>0.007125803158124834</v>
-      </c>
-      <c r="T8">
-        <v>0.007613637270499614</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.01013966666666667</v>
-      </c>
-      <c r="H9">
-        <v>0.030419</v>
-      </c>
-      <c r="I9">
-        <v>0.03429059699953049</v>
-      </c>
-      <c r="J9">
-        <v>0.05056887700819236</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1.566020333333333</v>
-      </c>
-      <c r="N9">
-        <v>4.698061</v>
-      </c>
-      <c r="O9">
-        <v>0.2651287255766807</v>
-      </c>
-      <c r="P9">
-        <v>0.2881364102729539</v>
-      </c>
-      <c r="Q9">
-        <v>0.01587892417322222</v>
-      </c>
-      <c r="R9">
-        <v>0.142910317559</v>
-      </c>
-      <c r="S9">
-        <v>0.009091422281749069</v>
-      </c>
-      <c r="T9">
-        <v>0.01457073469267506</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.01013966666666667</v>
-      </c>
-      <c r="H10">
-        <v>0.030419</v>
-      </c>
-      <c r="I10">
-        <v>0.03429059699953049</v>
-      </c>
-      <c r="J10">
-        <v>0.05056887700819236</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>2.214624666666667</v>
-      </c>
-      <c r="N10">
-        <v>6.643874</v>
-      </c>
-      <c r="O10">
-        <v>0.3749380534888848</v>
-      </c>
-      <c r="P10">
-        <v>0.4074749145798259</v>
-      </c>
-      <c r="Q10">
-        <v>0.02245555591177778</v>
-      </c>
-      <c r="R10">
-        <v>0.202100003206</v>
-      </c>
-      <c r="S10">
-        <v>0.01285684969197576</v>
-      </c>
-      <c r="T10">
-        <v>0.0206055488393109</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.01013966666666667</v>
-      </c>
-      <c r="H11">
-        <v>0.030419</v>
-      </c>
-      <c r="I11">
-        <v>0.03429059699953049</v>
-      </c>
-      <c r="J11">
-        <v>0.05056887700819236</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.5</v>
-      </c>
-      <c r="M11">
-        <v>0.187498</v>
-      </c>
-      <c r="N11">
-        <v>0.374996</v>
-      </c>
-      <c r="O11">
-        <v>0.0317435889752239</v>
-      </c>
-      <c r="P11">
-        <v>0.02299885022921512</v>
-      </c>
-      <c r="Q11">
-        <v>0.001901167220666667</v>
-      </c>
-      <c r="R11">
-        <v>0.011407003324</v>
-      </c>
-      <c r="S11">
-        <v>0.001088506616868142</v>
-      </c>
-      <c r="T11">
-        <v>0.001163026028571016</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.01013966666666667</v>
-      </c>
-      <c r="H12">
-        <v>0.030419</v>
-      </c>
-      <c r="I12">
-        <v>0.03429059699953049</v>
-      </c>
-      <c r="J12">
-        <v>0.05056887700819236</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M12">
-        <v>0.2903533333333334</v>
-      </c>
-      <c r="N12">
-        <v>0.8710600000000001</v>
-      </c>
-      <c r="O12">
-        <v>0.04915709432057682</v>
-      </c>
-      <c r="P12">
-        <v>0.05342291245949323</v>
-      </c>
-      <c r="Q12">
-        <v>0.002944086015555556</v>
-      </c>
-      <c r="R12">
-        <v>0.02649677414</v>
-      </c>
-      <c r="S12">
-        <v>0.001685626111014809</v>
-      </c>
-      <c r="T12">
-        <v>0.00270153668958354</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.01013966666666667</v>
-      </c>
-      <c r="H13">
-        <v>0.030419</v>
-      </c>
-      <c r="I13">
-        <v>0.03429059699953049</v>
-      </c>
-      <c r="J13">
-        <v>0.05056887700819236</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M13">
-        <v>0.4207076666666666</v>
-      </c>
-      <c r="N13">
-        <v>1.262123</v>
-      </c>
-      <c r="O13">
-        <v>0.07122620640962662</v>
-      </c>
-      <c r="P13">
-        <v>0.07740716660403757</v>
-      </c>
-      <c r="Q13">
-        <v>0.004265835504111111</v>
-      </c>
-      <c r="R13">
-        <v>0.03839251953699999</v>
-      </c>
-      <c r="S13">
-        <v>0.002442389139797882</v>
-      </c>
-      <c r="T13">
-        <v>0.003914393487552231</v>
+        <v>0.526229056651227</v>
       </c>
     </row>
   </sheetData>
